--- a/readapi/apis.xlsx
+++ b/readapi/apis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>num</t>
   </si>
@@ -120,9 +120,6 @@
     <t>$aab301</t>
   </si>
   <si>
-    <t>https://ssc.mohrss.gov.cn/api/token</t>
-  </si>
-  <si>
     <t>resultkey</t>
   </si>
   <si>
@@ -132,10 +129,19 @@
     <t>needkey</t>
   </si>
   <si>
-    <t>之前接口的返回值（或当前接口需求的值）</t>
+    <t>之前接口的返回值（或当前接口需要的值）</t>
   </si>
   <si>
     <t>需要替换参数中的值</t>
+  </si>
+  <si>
+    <t>header需添加的值</t>
+  </si>
+  <si>
+    <t>需要替换header中的值</t>
+  </si>
+  <si>
+    <t>header需要的值（之前接口有提取）</t>
   </si>
 </sst>
 </file>
@@ -143,10 +149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -174,12 +180,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -187,8 +239,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +280,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -210,92 +294,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,187 +316,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,78 +507,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -593,6 +527,60 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -601,6 +589,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,145 +615,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,10 +761,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
@@ -1123,108 +1129,108 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2"/>
-    <col min="10" max="12" width="13.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="10" max="12" width="13.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:10">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="27" spans="1:12">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" ht="54" spans="1:12">
       <c r="A4">
@@ -1248,13 +1254,13 @@
       <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1271,7 +1277,7 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F5" t="s">
@@ -1286,13 +1292,13 @@
       <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1312,59 +1318,67 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:8">
-      <c r="A1">
-        <v>2</v>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="https://ssc.mohrss.gov.cn/api/token" tooltip="https://ssc.mohrss.gov.cn/api/token"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
